--- a/src/main/resources/excel/1 Similares.xlsx
+++ b/src/main/resources/excel/1 Similares.xlsx
@@ -5,19 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 Similares" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="2 Similares" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="2 Similar" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="3 Similar" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="4 Similar" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="5 Similar" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="6 Similar" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="7 Similar" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="8 Similar" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="9 Similar" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1171,7 +1165,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1298,15 +1292,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.53"/>
@@ -1477,199 +1471,370 @@
         <v>39</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="0"/>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="0"/>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="0"/>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="0"/>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="0"/>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="0"/>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="0"/>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="0"/>
+      <c r="D31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="0"/>
+      <c r="D32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="0"/>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="0"/>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="0"/>
+      <c r="D35" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="0"/>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="0"/>
+      <c r="D37" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="0"/>
+      <c r="D38" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="0"/>
+      <c r="D39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="0"/>
+      <c r="D40" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="0"/>
+      <c r="D41" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="0"/>
+      <c r="D42" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="0"/>
+      <c r="D43" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="0"/>
+      <c r="D44" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="0"/>
+      <c r="D45" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1682,181 +1847,510 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="B43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>75</v>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1875,177 +2369,511 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.82"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>230</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>238</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>255</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="0" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>115</v>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2066,199 +2894,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.56"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2266,932 +2902,167 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>158</v>
+        <v>329</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>330</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>158</v>
+        <v>212</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>331</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>166</v>
+        <v>221</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>126</v>
+        <v>334</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>126</v>
+        <v>189</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>171</v>
+        <v>277</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>337</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>338</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>176</v>
+        <v>340</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>342</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>179</v>
+        <v>343</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>345</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>182</v>
+        <v>346</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>348</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>182</v>
+        <v>349</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>187</v>
+        <v>351</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>188</v>
+        <v>337</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>187</v>
+        <v>338</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.12"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E49" activeCellId="0" sqref="E49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.82"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/1 Similares.xlsx
+++ b/src/main/resources/excel/1 Similares.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="354">
   <si>
     <t xml:space="preserve">Dual</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">duelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAMPLE</t>
   </si>
   <si>
     <t xml:space="preserve">Flee</t>
@@ -1292,10 +1295,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1306,7 +1309,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1327,508 +1330,559 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="0"/>
+        <v>42</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="0"/>
+        <v>45</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="0"/>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
+      <c r="F18" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="0"/>
+        <v>50</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="0"/>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
+      <c r="F20" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="0"/>
+        <v>55</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="0"/>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
+      <c r="F22" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="0"/>
+        <v>60</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="0"/>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
+      <c r="F24" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="0"/>
+        <v>65</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="0"/>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
+      <c r="F26" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="0"/>
+        <v>70</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="0"/>
-      <c r="D28" s="1" t="s">
-        <v>70</v>
+      <c r="F28" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="0"/>
+        <v>75</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="0"/>
-      <c r="D30" s="1" t="s">
-        <v>75</v>
+      <c r="F30" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="0"/>
+        <v>80</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="0"/>
-      <c r="D32" s="1" t="s">
-        <v>80</v>
+      <c r="F32" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="0"/>
+        <v>85</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="0"/>
-      <c r="D34" s="1" t="s">
-        <v>85</v>
+      <c r="F34" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="0"/>
+        <v>90</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="0"/>
-      <c r="D36" s="1" t="s">
-        <v>90</v>
+      <c r="F36" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="0"/>
+        <v>95</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="0"/>
-      <c r="D38" s="1" t="s">
-        <v>95</v>
+      <c r="F38" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="0"/>
+        <v>100</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="0"/>
-      <c r="D40" s="1" t="s">
-        <v>100</v>
+      <c r="F40" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="0"/>
+        <v>105</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="0"/>
-      <c r="D42" s="1" t="s">
-        <v>105</v>
+      <c r="F42" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="0"/>
+        <v>110</v>
+      </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="0"/>
-      <c r="D44" s="1" t="s">
-        <v>110</v>
+      <c r="F44" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="0"/>
+        <v>115</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="0"/>
+      <c r="D46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1847,10 +1901,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1858,499 +1912,554 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>207</v>
+      <c r="F40" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>70</v>
+      <c r="F42" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>226</v>
+      <c r="F44" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2369,10 +2478,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2381,499 +2490,571 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.82"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>263</v>
+      <c r="F16" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>268</v>
+      <c r="F18" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>275</v>
+      <c r="F22" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>280</v>
+      <c r="F24" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>285</v>
+      <c r="F26" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>292</v>
+      <c r="F29" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>297</v>
+      <c r="F31" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>302</v>
+      <c r="F33" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>313</v>
+      <c r="F37" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>322</v>
+      <c r="F41" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2892,177 +3073,201 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
